--- a/config_12.29/game_module_config.xlsx
+++ b/config_12.29/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4559,10 +4559,10 @@
   <dimension ref="A1:I309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C284" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C260" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I310" sqref="I310"/>
+      <selection pane="bottomRight" activeCell="G270" sqref="G270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11418,13 +11418,13 @@
         <v>808</v>
       </c>
       <c r="E270" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F270" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G270" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H270" s="16"/>
       <c r="I270" s="20" t="s">

--- a/config_12.29/game_module_config.xlsx
+++ b/config_12.29/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="947">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3214,15 +3214,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>节日特惠</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Act_025_JRTHManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3879,14 +3871,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_038_s12</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十二页签</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>双12礼盒掉落</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3977,6 +3961,67 @@
   </si>
   <si>
     <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠→金牛幸运宝箱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月4日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二页签→元旦活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日23:59:59</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>a+I303+B303:D+B303:H304</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4068,7 +4113,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4117,6 +4162,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4149,7 +4200,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4278,6 +4329,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4556,13 +4622,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I309"/>
+  <dimension ref="A1:I310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C260" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C293" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G270" sqref="G270"/>
+      <selection pane="bottomRight" activeCell="F310" sqref="F310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5254,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8528,7 +8594,7 @@
         <v>0</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10528,7 +10594,7 @@
         <v>668</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>669</v>
@@ -11066,30 +11132,30 @@
         <v>754</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A257" s="18">
+    <row r="257" spans="1:9" s="45" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A257" s="43">
         <v>256</v>
       </c>
-      <c r="B257" s="17" t="s">
+      <c r="B257" s="44" t="s">
         <v>755</v>
       </c>
-      <c r="C257" s="17" t="s">
+      <c r="C257" s="44" t="s">
+        <v>942</v>
+      </c>
+      <c r="D257" s="44" t="s">
         <v>756</v>
       </c>
-      <c r="D257" s="17" t="s">
-        <v>757</v>
-      </c>
-      <c r="E257" s="19">
-        <v>0</v>
-      </c>
-      <c r="F257" s="19">
-        <v>1</v>
-      </c>
-      <c r="G257" s="19">
-        <v>1</v>
-      </c>
-      <c r="I257" s="17" t="s">
-        <v>758</v>
+      <c r="E257" s="45">
+        <v>1</v>
+      </c>
+      <c r="F257" s="45">
+        <v>1</v>
+      </c>
+      <c r="G257" s="45">
+        <v>1</v>
+      </c>
+      <c r="I257" s="31" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11097,13 +11163,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="17" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C258" s="17" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E258" s="19">
         <v>0</v>
@@ -11115,7 +11181,7 @@
         <v>1</v>
       </c>
       <c r="I258" s="17" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11123,14 +11189,14 @@
         <v>258</v>
       </c>
       <c r="B259" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="C259" s="17" t="s">
+        <v>762</v>
+      </c>
+      <c r="D259" s="17" t="s">
         <v>763</v>
       </c>
-      <c r="C259" s="17" t="s">
-        <v>764</v>
-      </c>
-      <c r="D259" s="17" t="s">
-        <v>765</v>
-      </c>
       <c r="E259" s="19">
         <v>0</v>
       </c>
@@ -11141,7 +11207,7 @@
         <v>1</v>
       </c>
       <c r="I259" s="17" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11149,25 +11215,25 @@
         <v>259</v>
       </c>
       <c r="B260" s="17" t="s">
+        <v>764</v>
+      </c>
+      <c r="C260" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="D260" s="17" t="s">
         <v>766</v>
       </c>
-      <c r="C260" s="17" t="s">
+      <c r="E260" s="19">
+        <v>1</v>
+      </c>
+      <c r="F260" s="19">
+        <v>1</v>
+      </c>
+      <c r="G260" s="19">
+        <v>1</v>
+      </c>
+      <c r="I260" s="17" t="s">
         <v>767</v>
-      </c>
-      <c r="D260" s="17" t="s">
-        <v>768</v>
-      </c>
-      <c r="E260" s="19">
-        <v>1</v>
-      </c>
-      <c r="F260" s="19">
-        <v>1</v>
-      </c>
-      <c r="G260" s="19">
-        <v>1</v>
-      </c>
-      <c r="I260" s="17" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="261" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11175,25 +11241,25 @@
         <v>260</v>
       </c>
       <c r="B261" s="17" t="s">
+        <v>768</v>
+      </c>
+      <c r="C261" s="17" t="s">
+        <v>769</v>
+      </c>
+      <c r="D261" s="17" t="s">
         <v>770</v>
       </c>
-      <c r="C261" s="17" t="s">
+      <c r="E261" s="19">
+        <v>0</v>
+      </c>
+      <c r="F261" s="19">
+        <v>1</v>
+      </c>
+      <c r="G261" s="19">
+        <v>1</v>
+      </c>
+      <c r="I261" s="17" t="s">
         <v>771</v>
-      </c>
-      <c r="D261" s="17" t="s">
-        <v>772</v>
-      </c>
-      <c r="E261" s="19">
-        <v>0</v>
-      </c>
-      <c r="F261" s="19">
-        <v>1</v>
-      </c>
-      <c r="G261" s="19">
-        <v>1</v>
-      </c>
-      <c r="I261" s="17" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11201,25 +11267,25 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
+        <v>772</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="D262" t="s">
+        <v>773</v>
+      </c>
+      <c r="E262" s="5">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="I262" s="12" t="s">
         <v>774</v>
-      </c>
-      <c r="C262" s="9" t="s">
-        <v>777</v>
-      </c>
-      <c r="D262" t="s">
-        <v>775</v>
-      </c>
-      <c r="E262" s="5">
-        <v>1</v>
-      </c>
-      <c r="F262">
-        <v>1</v>
-      </c>
-      <c r="G262">
-        <v>1</v>
-      </c>
-      <c r="I262" s="12" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11227,13 +11293,13 @@
         <v>262</v>
       </c>
       <c r="B263" s="17" t="s">
+        <v>776</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="D263" s="17" t="s">
         <v>778</v>
-      </c>
-      <c r="C263" s="9" t="s">
-        <v>779</v>
-      </c>
-      <c r="D263" s="17" t="s">
-        <v>780</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -11253,25 +11319,25 @@
         <v>263</v>
       </c>
       <c r="B264" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="C264" s="17" t="s">
+        <v>780</v>
+      </c>
+      <c r="D264" s="17" t="s">
         <v>781</v>
       </c>
-      <c r="C264" s="17" t="s">
+      <c r="E264" s="19">
+        <v>0</v>
+      </c>
+      <c r="F264" s="19">
+        <v>0</v>
+      </c>
+      <c r="G264" s="19">
+        <v>0</v>
+      </c>
+      <c r="I264" s="17" t="s">
         <v>782</v>
-      </c>
-      <c r="D264" s="17" t="s">
-        <v>783</v>
-      </c>
-      <c r="E264" s="19">
-        <v>0</v>
-      </c>
-      <c r="F264" s="19">
-        <v>0</v>
-      </c>
-      <c r="G264" s="19">
-        <v>0</v>
-      </c>
-      <c r="I264" s="17" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="265" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11279,13 +11345,13 @@
         <v>264</v>
       </c>
       <c r="B265" s="17" t="s">
+        <v>783</v>
+      </c>
+      <c r="C265" s="17" t="s">
+        <v>784</v>
+      </c>
+      <c r="D265" s="17" t="s">
         <v>785</v>
-      </c>
-      <c r="C265" s="17" t="s">
-        <v>786</v>
-      </c>
-      <c r="D265" s="17" t="s">
-        <v>787</v>
       </c>
       <c r="E265" s="19">
         <v>0</v>
@@ -11305,25 +11371,25 @@
         <v>265</v>
       </c>
       <c r="B266" s="17" t="s">
+        <v>786</v>
+      </c>
+      <c r="C266" s="17" t="s">
+        <v>787</v>
+      </c>
+      <c r="D266" s="17" t="s">
         <v>788</v>
       </c>
-      <c r="C266" s="17" t="s">
+      <c r="E266" s="19">
+        <v>0</v>
+      </c>
+      <c r="F266" s="19">
+        <v>0</v>
+      </c>
+      <c r="G266" s="19">
+        <v>0</v>
+      </c>
+      <c r="I266" s="19" t="s">
         <v>789</v>
-      </c>
-      <c r="D266" s="17" t="s">
-        <v>790</v>
-      </c>
-      <c r="E266" s="19">
-        <v>0</v>
-      </c>
-      <c r="F266" s="19">
-        <v>0</v>
-      </c>
-      <c r="G266" s="19">
-        <v>0</v>
-      </c>
-      <c r="I266" s="19" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11331,25 +11397,25 @@
         <v>266</v>
       </c>
       <c r="B267" s="17" t="s">
+        <v>790</v>
+      </c>
+      <c r="C267" s="17" t="s">
         <v>792</v>
       </c>
-      <c r="C267" s="17" t="s">
-        <v>794</v>
-      </c>
       <c r="D267" s="22" t="s">
+        <v>791</v>
+      </c>
+      <c r="E267" s="19">
+        <v>0</v>
+      </c>
+      <c r="F267" s="19">
+        <v>0</v>
+      </c>
+      <c r="G267" s="19">
+        <v>0</v>
+      </c>
+      <c r="I267" s="23" t="s">
         <v>793</v>
-      </c>
-      <c r="E267" s="19">
-        <v>0</v>
-      </c>
-      <c r="F267" s="19">
-        <v>0</v>
-      </c>
-      <c r="G267" s="19">
-        <v>0</v>
-      </c>
-      <c r="I267" s="23" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11357,13 +11423,13 @@
         <v>267</v>
       </c>
       <c r="B268" s="17" t="s">
+        <v>794</v>
+      </c>
+      <c r="C268" s="17" t="s">
         <v>796</v>
       </c>
-      <c r="C268" s="17" t="s">
-        <v>798</v>
-      </c>
       <c r="D268" s="22" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E268" s="19">
         <v>0</v>
@@ -11383,13 +11449,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="17" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C269" s="17" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D269" s="22" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E269" s="19">
         <v>1</v>
@@ -11409,13 +11475,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C270" s="15" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D270" s="21" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E270" s="16">
         <v>0</v>
@@ -11436,13 +11502,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="C271" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="D271" s="21" t="s">
         <v>805</v>
-      </c>
-      <c r="C271" s="15" t="s">
-        <v>806</v>
-      </c>
-      <c r="D271" s="21" t="s">
-        <v>807</v>
       </c>
       <c r="E271" s="16">
         <v>0</v>
@@ -11463,25 +11529,25 @@
         <v>271</v>
       </c>
       <c r="B272" s="17" t="s">
+        <v>807</v>
+      </c>
+      <c r="C272" s="17" t="s">
         <v>809</v>
       </c>
-      <c r="C272" s="17" t="s">
-        <v>811</v>
-      </c>
       <c r="D272" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="E272" s="19">
+        <v>1</v>
+      </c>
+      <c r="F272" s="19">
+        <v>1</v>
+      </c>
+      <c r="G272" s="19">
+        <v>1</v>
+      </c>
+      <c r="I272" s="23" t="s">
         <v>810</v>
-      </c>
-      <c r="E272" s="19">
-        <v>1</v>
-      </c>
-      <c r="F272" s="19">
-        <v>1</v>
-      </c>
-      <c r="G272" s="19">
-        <v>1</v>
-      </c>
-      <c r="I272" s="23" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11489,14 +11555,14 @@
         <v>272</v>
       </c>
       <c r="B273" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="C273" s="17" t="s">
+        <v>812</v>
+      </c>
+      <c r="D273" s="22" t="s">
         <v>813</v>
       </c>
-      <c r="C273" s="17" t="s">
-        <v>814</v>
-      </c>
-      <c r="D273" s="22" t="s">
-        <v>815</v>
-      </c>
       <c r="E273" s="19">
         <v>1</v>
       </c>
@@ -11507,7 +11573,7 @@
         <v>1</v>
       </c>
       <c r="I273" s="23" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11515,13 +11581,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="17" t="s">
+        <v>815</v>
+      </c>
+      <c r="C274" s="17" t="s">
         <v>817</v>
       </c>
-      <c r="C274" s="17" t="s">
-        <v>819</v>
-      </c>
       <c r="D274" s="22" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E274">
         <v>1</v>
@@ -11533,7 +11599,7 @@
         <v>1</v>
       </c>
       <c r="I274" s="23" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11541,25 +11607,25 @@
         <v>274</v>
       </c>
       <c r="B275" s="17" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C275" s="17" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D275" s="22" t="s">
+        <v>819</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+      <c r="I275" s="23" t="s">
         <v>821</v>
-      </c>
-      <c r="E275">
-        <v>0</v>
-      </c>
-      <c r="F275">
-        <v>0</v>
-      </c>
-      <c r="G275">
-        <v>0</v>
-      </c>
-      <c r="I275" s="23" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
@@ -11567,14 +11633,14 @@
         <v>275</v>
       </c>
       <c r="B276" s="30" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C276" s="30" t="s">
+        <v>822</v>
+      </c>
+      <c r="D276" s="40" t="s">
         <v>824</v>
       </c>
-      <c r="D276" s="40" t="s">
-        <v>826</v>
-      </c>
       <c r="E276" s="29">
         <v>1</v>
       </c>
@@ -11585,7 +11651,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="41" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11593,22 +11659,22 @@
         <v>276</v>
       </c>
       <c r="B277" s="17" t="s">
+        <v>825</v>
+      </c>
+      <c r="C277" s="17" t="s">
+        <v>826</v>
+      </c>
+      <c r="E277">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
+      <c r="I277" s="23" t="s">
         <v>827</v>
-      </c>
-      <c r="C277" s="17" t="s">
-        <v>828</v>
-      </c>
-      <c r="E277">
-        <v>1</v>
-      </c>
-      <c r="F277">
-        <v>1</v>
-      </c>
-      <c r="G277">
-        <v>1</v>
-      </c>
-      <c r="I277" s="23" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="278" spans="1:9" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11616,13 +11682,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="31" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C278" s="31" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D278" s="32" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E278" s="33">
         <v>1</v>
@@ -11634,7 +11700,7 @@
         <v>1</v>
       </c>
       <c r="I278" s="31" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11642,13 +11708,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="17" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C279" s="17" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D279" s="22" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E279">
         <v>1</v>
@@ -11660,7 +11726,7 @@
         <v>1</v>
       </c>
       <c r="I279" s="23" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11668,22 +11734,22 @@
         <v>279</v>
       </c>
       <c r="B280" s="17" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C280" s="17" t="s">
+        <v>832</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="23" t="s">
         <v>834</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="I280" s="23" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11691,13 +11757,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="17" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C281" s="17" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D281" s="22" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -11709,7 +11775,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="23" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11717,13 +11783,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="17" t="s">
+        <v>839</v>
+      </c>
+      <c r="C282" s="17" t="s">
         <v>841</v>
       </c>
-      <c r="C282" s="17" t="s">
-        <v>843</v>
-      </c>
       <c r="D282" s="22" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E282">
         <v>1</v>
@@ -11735,7 +11801,7 @@
         <v>1</v>
       </c>
       <c r="I282" s="23" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11743,13 +11809,13 @@
         <v>282</v>
       </c>
       <c r="B283" s="17" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C283" s="17" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D283" s="22" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -11761,7 +11827,7 @@
         <v>0</v>
       </c>
       <c r="I283" s="23" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="284" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11769,25 +11835,25 @@
         <v>283</v>
       </c>
       <c r="B284" s="24" t="s">
+        <v>845</v>
+      </c>
+      <c r="C284" s="17" t="s">
+        <v>846</v>
+      </c>
+      <c r="D284" s="22" t="s">
         <v>847</v>
       </c>
-      <c r="C284" s="17" t="s">
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="I284" s="23" t="s">
         <v>848</v>
-      </c>
-      <c r="D284" s="22" t="s">
-        <v>849</v>
-      </c>
-      <c r="E284">
-        <v>1</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-      <c r="I284" s="23" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="285" spans="1:9" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11795,13 +11861,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="25" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C285" s="28" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D285" s="25" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E285" s="26">
         <v>1</v>
@@ -11821,25 +11887,25 @@
         <v>285</v>
       </c>
       <c r="B286" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="C286" s="17" t="s">
+        <v>857</v>
+      </c>
+      <c r="D286" s="22" t="s">
         <v>858</v>
       </c>
-      <c r="C286" s="17" t="s">
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="I286" s="23" t="s">
         <v>859</v>
-      </c>
-      <c r="D286" s="22" t="s">
-        <v>860</v>
-      </c>
-      <c r="E286">
-        <v>0</v>
-      </c>
-      <c r="F286">
-        <v>0</v>
-      </c>
-      <c r="G286">
-        <v>0</v>
-      </c>
-      <c r="I286" s="23" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11847,13 +11913,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="17" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C287" s="17" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D287" s="22" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -11873,25 +11939,25 @@
         <v>287</v>
       </c>
       <c r="B288" s="17" t="s">
+        <v>863</v>
+      </c>
+      <c r="C288" s="17" t="s">
+        <v>864</v>
+      </c>
+      <c r="D288" s="22" t="s">
         <v>865</v>
       </c>
-      <c r="C288" s="17" t="s">
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288">
+        <v>1</v>
+      </c>
+      <c r="G288">
+        <v>1</v>
+      </c>
+      <c r="I288" s="23" t="s">
         <v>866</v>
-      </c>
-      <c r="D288" s="22" t="s">
-        <v>867</v>
-      </c>
-      <c r="E288">
-        <v>1</v>
-      </c>
-      <c r="F288">
-        <v>1</v>
-      </c>
-      <c r="G288">
-        <v>1</v>
-      </c>
-      <c r="I288" s="23" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="289" spans="1:9" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11899,13 +11965,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="30" t="s">
+        <v>867</v>
+      </c>
+      <c r="C289" s="30" t="s">
         <v>869</v>
       </c>
-      <c r="C289" s="30" t="s">
-        <v>871</v>
-      </c>
       <c r="D289" s="30" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E289" s="29">
         <v>1</v>
@@ -11917,7 +11983,7 @@
         <v>1</v>
       </c>
       <c r="I289" s="30" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="290" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11925,25 +11991,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="17" t="s">
+        <v>871</v>
+      </c>
+      <c r="C290" s="17" t="s">
+        <v>872</v>
+      </c>
+      <c r="D290" s="22" t="s">
         <v>873</v>
       </c>
-      <c r="C290" s="17" t="s">
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="F290">
+        <v>1</v>
+      </c>
+      <c r="G290">
+        <v>1</v>
+      </c>
+      <c r="I290" s="23" t="s">
         <v>874</v>
-      </c>
-      <c r="D290" s="22" t="s">
-        <v>875</v>
-      </c>
-      <c r="E290">
-        <v>1</v>
-      </c>
-      <c r="F290">
-        <v>1</v>
-      </c>
-      <c r="G290">
-        <v>1</v>
-      </c>
-      <c r="I290" s="23" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11951,25 +12017,25 @@
         <v>290</v>
       </c>
       <c r="B291" s="24" t="s">
+        <v>875</v>
+      </c>
+      <c r="C291" s="17" t="s">
+        <v>876</v>
+      </c>
+      <c r="D291" s="24" t="s">
         <v>877</v>
       </c>
-      <c r="C291" s="17" t="s">
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="I291" s="23" t="s">
         <v>878</v>
-      </c>
-      <c r="D291" s="24" t="s">
-        <v>879</v>
-      </c>
-      <c r="E291">
-        <v>1</v>
-      </c>
-      <c r="F291">
-        <v>1</v>
-      </c>
-      <c r="G291">
-        <v>1</v>
-      </c>
-      <c r="I291" s="23" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11977,13 +12043,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="24" t="s">
+        <v>879</v>
+      </c>
+      <c r="C292" s="17" t="s">
+        <v>880</v>
+      </c>
+      <c r="D292" s="24" t="s">
         <v>881</v>
-      </c>
-      <c r="C292" s="17" t="s">
-        <v>882</v>
-      </c>
-      <c r="D292" s="24" t="s">
-        <v>883</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -12003,13 +12069,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="24" t="s">
+        <v>882</v>
+      </c>
+      <c r="C293" s="17" t="s">
+        <v>887</v>
+      </c>
+      <c r="D293" s="24" t="s">
         <v>884</v>
-      </c>
-      <c r="C293" s="17" t="s">
-        <v>889</v>
-      </c>
-      <c r="D293" s="24" t="s">
-        <v>886</v>
       </c>
       <c r="E293">
         <v>1</v>
@@ -12029,14 +12095,14 @@
         <v>293</v>
       </c>
       <c r="B294" s="24" t="s">
+        <v>883</v>
+      </c>
+      <c r="C294" s="17" t="s">
+        <v>888</v>
+      </c>
+      <c r="D294" s="24" t="s">
         <v>885</v>
       </c>
-      <c r="C294" s="17" t="s">
-        <v>890</v>
-      </c>
-      <c r="D294" s="24" t="s">
-        <v>887</v>
-      </c>
       <c r="E294">
         <v>1</v>
       </c>
@@ -12047,7 +12113,7 @@
         <v>1</v>
       </c>
       <c r="I294" s="23" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="295" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12055,13 +12121,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="24" t="s">
+        <v>889</v>
+      </c>
+      <c r="C295" s="17" t="s">
+        <v>890</v>
+      </c>
+      <c r="D295" s="24" t="s">
         <v>891</v>
-      </c>
-      <c r="C295" s="17" t="s">
-        <v>892</v>
-      </c>
-      <c r="D295" s="24" t="s">
-        <v>893</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -12081,13 +12147,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="24" t="s">
+        <v>892</v>
+      </c>
+      <c r="C296" s="17" t="s">
+        <v>893</v>
+      </c>
+      <c r="D296" s="24" t="s">
         <v>894</v>
-      </c>
-      <c r="C296" s="17" t="s">
-        <v>895</v>
-      </c>
-      <c r="D296" s="24" t="s">
-        <v>896</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -12107,14 +12173,14 @@
         <v>296</v>
       </c>
       <c r="B297" s="24" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C297" s="17" t="s">
+        <v>896</v>
+      </c>
+      <c r="D297" s="24" t="s">
         <v>898</v>
       </c>
-      <c r="D297" s="24" t="s">
-        <v>900</v>
-      </c>
       <c r="E297">
         <v>0</v>
       </c>
@@ -12125,7 +12191,7 @@
         <v>0</v>
       </c>
       <c r="I297" s="17" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12133,14 +12199,14 @@
         <v>297</v>
       </c>
       <c r="B298" s="24" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C298" s="17" t="s">
+        <v>897</v>
+      </c>
+      <c r="D298" s="24" t="s">
         <v>899</v>
       </c>
-      <c r="D298" s="24" t="s">
-        <v>901</v>
-      </c>
       <c r="E298">
         <v>0</v>
       </c>
@@ -12151,7 +12217,7 @@
         <v>0</v>
       </c>
       <c r="I298" s="17" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="299" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12159,14 +12225,14 @@
         <v>298</v>
       </c>
       <c r="B299" s="24" t="s">
+        <v>901</v>
+      </c>
+      <c r="C299" s="17" t="s">
+        <v>902</v>
+      </c>
+      <c r="D299" s="24" t="s">
         <v>903</v>
       </c>
-      <c r="C299" s="17" t="s">
-        <v>904</v>
-      </c>
-      <c r="D299" s="24" t="s">
-        <v>905</v>
-      </c>
       <c r="E299">
         <v>0</v>
       </c>
@@ -12177,7 +12243,7 @@
         <v>0</v>
       </c>
       <c r="I299" s="17" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12185,25 +12251,25 @@
         <v>299</v>
       </c>
       <c r="B300" s="24" t="s">
+        <v>904</v>
+      </c>
+      <c r="C300" s="17" t="s">
+        <v>905</v>
+      </c>
+      <c r="D300" s="24" t="s">
         <v>906</v>
       </c>
-      <c r="C300" s="17" t="s">
+      <c r="E300">
+        <v>1</v>
+      </c>
+      <c r="F300">
+        <v>1</v>
+      </c>
+      <c r="G300">
+        <v>1</v>
+      </c>
+      <c r="I300" s="23" t="s">
         <v>907</v>
-      </c>
-      <c r="D300" s="24" t="s">
-        <v>908</v>
-      </c>
-      <c r="E300">
-        <v>1</v>
-      </c>
-      <c r="F300">
-        <v>1</v>
-      </c>
-      <c r="G300">
-        <v>1</v>
-      </c>
-      <c r="I300" s="23" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="301" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12211,25 +12277,25 @@
         <v>300</v>
       </c>
       <c r="B301" s="34" t="s">
+        <v>911</v>
+      </c>
+      <c r="C301" s="35" t="s">
+        <v>912</v>
+      </c>
+      <c r="D301" s="34" t="s">
         <v>913</v>
       </c>
-      <c r="C301" s="35" t="s">
+      <c r="E301" s="36">
+        <v>1</v>
+      </c>
+      <c r="F301" s="36">
+        <v>1</v>
+      </c>
+      <c r="G301" s="36">
+        <v>1</v>
+      </c>
+      <c r="I301" s="37" t="s">
         <v>914</v>
-      </c>
-      <c r="D301" s="34" t="s">
-        <v>915</v>
-      </c>
-      <c r="E301" s="36">
-        <v>1</v>
-      </c>
-      <c r="F301" s="36">
-        <v>1</v>
-      </c>
-      <c r="G301" s="36">
-        <v>1</v>
-      </c>
-      <c r="I301" s="37" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="302" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12237,13 +12303,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="34" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C302" s="35" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D302" s="34" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E302" s="36">
         <v>0</v>
@@ -12255,7 +12321,7 @@
         <v>0</v>
       </c>
       <c r="I302" s="37" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="303" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12263,10 +12329,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="34" t="s">
-        <v>922</v>
+        <v>946</v>
       </c>
       <c r="C303" s="35" t="s">
-        <v>923</v>
+        <v>944</v>
       </c>
       <c r="E303" s="36">
         <v>1</v>
@@ -12277,34 +12343,35 @@
       <c r="G303" s="36">
         <v>1</v>
       </c>
-      <c r="I303" s="37" t="s">
-        <v>916</v>
+      <c r="I303" s="35" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="304" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A304" s="18">
         <v>303</v>
       </c>
-      <c r="B304" s="34" t="s">
-        <v>925</v>
-      </c>
-      <c r="C304" s="35" t="s">
-        <v>924</v>
-      </c>
-      <c r="D304" s="34" t="s">
-        <v>926</v>
-      </c>
-      <c r="E304" s="36">
-        <v>1</v>
-      </c>
-      <c r="F304" s="36">
-        <v>1</v>
-      </c>
-      <c r="G304" s="36">
-        <v>1</v>
-      </c>
-      <c r="I304" s="37" t="s">
-        <v>916</v>
+      <c r="B304" s="46" t="s">
+        <v>921</v>
+      </c>
+      <c r="C304" s="44" t="s">
+        <v>920</v>
+      </c>
+      <c r="D304" s="46" t="s">
+        <v>922</v>
+      </c>
+      <c r="E304" s="45">
+        <v>1</v>
+      </c>
+      <c r="F304" s="45">
+        <v>1</v>
+      </c>
+      <c r="G304" s="45">
+        <v>1</v>
+      </c>
+      <c r="H304" s="45"/>
+      <c r="I304" s="47" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12312,13 +12379,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="34" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="C305" s="35" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="D305" s="34" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="E305" s="36">
         <v>1</v>
@@ -12330,7 +12397,7 @@
         <v>1</v>
       </c>
       <c r="I305" s="37" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
     </row>
     <row r="306" spans="1:9" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
@@ -12338,13 +12405,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="40" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C306" s="30" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="D306" s="40" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="E306" s="29">
         <v>1</v>
@@ -12356,7 +12423,7 @@
         <v>1</v>
       </c>
       <c r="I306" s="41" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12364,13 +12431,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="38" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="C307" s="39" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="D307" s="38" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="E307" s="2">
         <v>1</v>
@@ -12383,7 +12450,7 @@
       </c>
       <c r="H307" s="2"/>
       <c r="I307" s="39" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12391,13 +12458,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="38" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="C308" s="38" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="D308" s="38" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="E308" s="2">
         <v>1</v>
@@ -12418,13 +12485,13 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="C309" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="D309" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="E309">
         <v>1</v>
@@ -12436,8 +12503,13 @@
         <v>1</v>
       </c>
       <c r="I309" s="37" t="s">
-        <v>945</v>
-      </c>
+        <v>941</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A310" s="18"/>
+      <c r="B310" s="24"/>
+      <c r="C310" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H234"/>

--- a/config_12.29/game_module_config.xlsx
+++ b/config_12.29/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="949">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3907,10 +3907,6 @@
     <t>Act_039_JZSJBManager</t>
   </si>
   <si>
-    <t>饺子收集榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_039_ty_by_drop</t>
   </si>
   <si>
@@ -3921,27 +3917,6 @@
   </si>
   <si>
     <t>12月28日23:59:59</t>
-  </si>
-  <si>
-    <t>饺子换好礼→圣诞福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12月21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>日23:59:59</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>cjj互导</t>
@@ -4022,6 +3997,24 @@
   </si>
   <si>
     <t>a+I303+B303:D+B303:H304</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子收集榜 → 金元宝榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子换好礼→圣诞福利→元旦好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">act_040_ydfl </t>
+  </si>
+  <si>
+    <t>Act_013_DLFLManager</t>
+  </si>
+  <si>
+    <t>元旦福利</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4200,7 +4193,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4316,9 +4309,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4625,10 +4615,10 @@
   <dimension ref="A1:I310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C293" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D287" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F310" sqref="F310"/>
+      <selection pane="bottomRight" activeCell="B310" sqref="B310:I310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4645,7 +4635,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -11132,30 +11122,30 @@
         <v>754</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="45" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A257" s="43">
+    <row r="257" spans="1:9" s="44" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A257" s="42">
         <v>256</v>
       </c>
-      <c r="B257" s="44" t="s">
+      <c r="B257" s="43" t="s">
         <v>755</v>
       </c>
-      <c r="C257" s="44" t="s">
-        <v>942</v>
-      </c>
-      <c r="D257" s="44" t="s">
+      <c r="C257" s="43" t="s">
+        <v>939</v>
+      </c>
+      <c r="D257" s="43" t="s">
         <v>756</v>
       </c>
-      <c r="E257" s="45">
-        <v>1</v>
-      </c>
-      <c r="F257" s="45">
-        <v>1</v>
-      </c>
-      <c r="G257" s="45">
+      <c r="E257" s="44">
+        <v>1</v>
+      </c>
+      <c r="F257" s="44">
+        <v>1</v>
+      </c>
+      <c r="G257" s="44">
         <v>1</v>
       </c>
       <c r="I257" s="31" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11638,7 +11628,7 @@
       <c r="C276" s="30" t="s">
         <v>822</v>
       </c>
-      <c r="D276" s="40" t="s">
+      <c r="D276" s="39" t="s">
         <v>824</v>
       </c>
       <c r="E276" s="29">
@@ -11650,8 +11640,8 @@
       <c r="G276" s="29">
         <v>1</v>
       </c>
-      <c r="I276" s="41" t="s">
-        <v>934</v>
+      <c r="I276" s="40" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12329,10 +12319,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="34" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C303" s="35" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="E303" s="36">
         <v>1</v>
@@ -12344,33 +12334,33 @@
         <v>1</v>
       </c>
       <c r="I303" s="35" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="304" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A304" s="18">
         <v>303</v>
       </c>
-      <c r="B304" s="46" t="s">
+      <c r="B304" s="45" t="s">
         <v>921</v>
       </c>
-      <c r="C304" s="44" t="s">
+      <c r="C304" s="43" t="s">
         <v>920</v>
       </c>
-      <c r="D304" s="46" t="s">
+      <c r="D304" s="45" t="s">
         <v>922</v>
       </c>
-      <c r="E304" s="45">
-        <v>1</v>
-      </c>
-      <c r="F304" s="45">
-        <v>1</v>
-      </c>
-      <c r="G304" s="45">
-        <v>1</v>
-      </c>
-      <c r="H304" s="45"/>
-      <c r="I304" s="47" t="s">
+      <c r="E304" s="44">
+        <v>1</v>
+      </c>
+      <c r="F304" s="44">
+        <v>1</v>
+      </c>
+      <c r="G304" s="44">
+        <v>1</v>
+      </c>
+      <c r="H304" s="44"/>
+      <c r="I304" s="46" t="s">
         <v>914</v>
       </c>
     </row>
@@ -12382,7 +12372,7 @@
         <v>923</v>
       </c>
       <c r="C305" s="35" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="D305" s="34" t="s">
         <v>924</v>
@@ -12400,57 +12390,58 @@
         <v>925</v>
       </c>
     </row>
-    <row r="306" spans="1:9" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A306" s="18">
         <v>305</v>
       </c>
-      <c r="B306" s="40" t="s">
+      <c r="B306" s="45" t="s">
         <v>926</v>
       </c>
-      <c r="C306" s="30" t="s">
-        <v>935</v>
-      </c>
-      <c r="D306" s="40" t="s">
+      <c r="C306" s="43" t="s">
+        <v>945</v>
+      </c>
+      <c r="D306" s="45" t="s">
         <v>927</v>
       </c>
-      <c r="E306" s="29">
-        <v>1</v>
-      </c>
-      <c r="F306" s="29">
-        <v>1</v>
-      </c>
-      <c r="G306" s="29">
-        <v>1</v>
-      </c>
-      <c r="I306" s="41" t="s">
-        <v>934</v>
+      <c r="E306" s="44">
+        <v>1</v>
+      </c>
+      <c r="F306" s="44">
+        <v>1</v>
+      </c>
+      <c r="G306" s="44">
+        <v>1</v>
+      </c>
+      <c r="H306" s="44"/>
+      <c r="I306" s="43" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A307" s="18">
         <v>306</v>
       </c>
-      <c r="B307" s="38" t="s">
+      <c r="B307" s="45" t="s">
         <v>928</v>
       </c>
-      <c r="C307" s="39" t="s">
-        <v>930</v>
-      </c>
-      <c r="D307" s="38" t="s">
+      <c r="C307" s="43" t="s">
+        <v>944</v>
+      </c>
+      <c r="D307" s="45" t="s">
         <v>929</v>
       </c>
-      <c r="E307" s="2">
-        <v>1</v>
-      </c>
-      <c r="F307" s="2">
-        <v>1</v>
-      </c>
-      <c r="G307" s="2">
-        <v>1</v>
-      </c>
-      <c r="H307" s="2"/>
-      <c r="I307" s="39" t="s">
-        <v>936</v>
+      <c r="E307" s="44">
+        <v>1</v>
+      </c>
+      <c r="F307" s="44">
+        <v>1</v>
+      </c>
+      <c r="G307" s="44">
+        <v>1</v>
+      </c>
+      <c r="H307" s="44"/>
+      <c r="I307" s="43" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12458,13 +12449,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="38" t="s">
+        <v>930</v>
+      </c>
+      <c r="C308" s="38" t="s">
+        <v>932</v>
+      </c>
+      <c r="D308" s="38" t="s">
         <v>931</v>
-      </c>
-      <c r="C308" s="38" t="s">
-        <v>933</v>
-      </c>
-      <c r="D308" s="38" t="s">
-        <v>932</v>
       </c>
       <c r="E308" s="2">
         <v>1</v>
@@ -12485,31 +12476,53 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
+        <v>937</v>
+      </c>
+      <c r="C309" t="s">
+        <v>936</v>
+      </c>
+      <c r="D309" t="s">
+        <v>935</v>
+      </c>
+      <c r="E309">
+        <v>1</v>
+      </c>
+      <c r="F309">
+        <v>1</v>
+      </c>
+      <c r="G309">
+        <v>1</v>
+      </c>
+      <c r="I309" s="37" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A310" s="18">
+        <v>309</v>
+      </c>
+      <c r="B310" s="45" t="s">
+        <v>946</v>
+      </c>
+      <c r="C310" s="43" t="s">
+        <v>948</v>
+      </c>
+      <c r="D310" s="45" t="s">
+        <v>947</v>
+      </c>
+      <c r="E310" s="44">
+        <v>1</v>
+      </c>
+      <c r="F310" s="44">
+        <v>1</v>
+      </c>
+      <c r="G310" s="44">
+        <v>1</v>
+      </c>
+      <c r="H310" s="44"/>
+      <c r="I310" s="43" t="s">
         <v>940</v>
       </c>
-      <c r="C309" t="s">
-        <v>939</v>
-      </c>
-      <c r="D309" t="s">
-        <v>938</v>
-      </c>
-      <c r="E309">
-        <v>1</v>
-      </c>
-      <c r="F309">
-        <v>1</v>
-      </c>
-      <c r="G309">
-        <v>1</v>
-      </c>
-      <c r="I309" s="37" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A310" s="18"/>
-      <c r="B310" s="24"/>
-      <c r="C310" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H234"/>

--- a/config_12.29/game_module_config.xlsx
+++ b/config_12.29/game_module_config.xlsx
@@ -4008,13 +4008,15 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">act_040_ydfl </t>
+    <t>元旦福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Act_013_DLFLManager</t>
-  </si>
-  <si>
-    <t>元旦福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_040_ydfl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4615,10 +4617,10 @@
   <dimension ref="A1:I310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D287" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C287" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B310" sqref="B310:I310"/>
+      <selection pane="bottomRight" activeCell="B310" sqref="B310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12502,10 +12504,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="45" t="s">
+        <v>948</v>
+      </c>
+      <c r="C310" s="43" t="s">
         <v>946</v>
-      </c>
-      <c r="C310" s="43" t="s">
-        <v>948</v>
       </c>
       <c r="D310" s="45" t="s">
         <v>947</v>

--- a/config_12.29/game_module_config.xlsx
+++ b/config_12.29/game_module_config.xlsx
@@ -3996,10 +3996,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>a+I303+B303:D+B303:H304</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>饺子收集榜 → 金元宝榜</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4017,6 +4013,10 @@
   </si>
   <si>
     <t>act_040_ydfl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4108,7 +4108,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4163,6 +4163,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4195,7 +4201,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4335,6 +4341,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4617,10 +4626,10 @@
   <dimension ref="A1:I310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C287" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C290" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B310" sqref="B310"/>
+      <selection pane="bottomRight" activeCell="C303" sqref="C303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11682,14 +11691,14 @@
       <c r="D278" s="32" t="s">
         <v>829</v>
       </c>
-      <c r="E278" s="33">
-        <v>1</v>
-      </c>
-      <c r="F278" s="33">
-        <v>1</v>
-      </c>
-      <c r="G278" s="33">
-        <v>1</v>
+      <c r="E278" s="47">
+        <v>0</v>
+      </c>
+      <c r="F278" s="47">
+        <v>0</v>
+      </c>
+      <c r="G278" s="47">
+        <v>0</v>
       </c>
       <c r="I278" s="31" t="s">
         <v>919</v>
@@ -11965,14 +11974,14 @@
       <c r="D289" s="30" t="s">
         <v>870</v>
       </c>
-      <c r="E289" s="29">
-        <v>1</v>
-      </c>
-      <c r="F289" s="29">
-        <v>1</v>
-      </c>
-      <c r="G289" s="29">
-        <v>1</v>
+      <c r="E289" s="47">
+        <v>0</v>
+      </c>
+      <c r="F289" s="47">
+        <v>0</v>
+      </c>
+      <c r="G289" s="47">
+        <v>0</v>
       </c>
       <c r="I289" s="30" t="s">
         <v>868</v>
@@ -12277,14 +12286,14 @@
       <c r="D301" s="34" t="s">
         <v>913</v>
       </c>
-      <c r="E301" s="36">
-        <v>1</v>
-      </c>
-      <c r="F301" s="36">
-        <v>1</v>
-      </c>
-      <c r="G301" s="36">
-        <v>1</v>
+      <c r="E301" s="47">
+        <v>0</v>
+      </c>
+      <c r="F301" s="47">
+        <v>0</v>
+      </c>
+      <c r="G301" s="47">
+        <v>0</v>
       </c>
       <c r="I301" s="37" t="s">
         <v>914</v>
@@ -12303,13 +12312,13 @@
       <c r="D302" s="34" t="s">
         <v>916</v>
       </c>
-      <c r="E302" s="36">
-        <v>0</v>
-      </c>
-      <c r="F302" s="36">
-        <v>0</v>
-      </c>
-      <c r="G302" s="36">
+      <c r="E302" s="47">
+        <v>0</v>
+      </c>
+      <c r="F302" s="47">
+        <v>0</v>
+      </c>
+      <c r="G302" s="47">
         <v>0</v>
       </c>
       <c r="I302" s="37" t="s">
@@ -12321,7 +12330,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="34" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="C303" s="35" t="s">
         <v>941</v>
@@ -12352,14 +12361,14 @@
       <c r="D304" s="45" t="s">
         <v>922</v>
       </c>
-      <c r="E304" s="44">
-        <v>1</v>
-      </c>
-      <c r="F304" s="44">
-        <v>1</v>
-      </c>
-      <c r="G304" s="44">
-        <v>1</v>
+      <c r="E304" s="47">
+        <v>0</v>
+      </c>
+      <c r="F304" s="47">
+        <v>0</v>
+      </c>
+      <c r="G304" s="47">
+        <v>0</v>
       </c>
       <c r="H304" s="44"/>
       <c r="I304" s="46" t="s">
@@ -12400,7 +12409,7 @@
         <v>926</v>
       </c>
       <c r="C306" s="43" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D306" s="45" t="s">
         <v>927</v>
@@ -12427,7 +12436,7 @@
         <v>928</v>
       </c>
       <c r="C307" s="43" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D307" s="45" t="s">
         <v>929</v>
@@ -12504,13 +12513,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="45" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C310" s="43" t="s">
+        <v>945</v>
+      </c>
+      <c r="D310" s="45" t="s">
         <v>946</v>
-      </c>
-      <c r="D310" s="45" t="s">
-        <v>947</v>
       </c>
       <c r="E310" s="44">
         <v>1</v>

--- a/config_12.29/game_module_config.xlsx
+++ b/config_12.29/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="946">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3961,6 +3961,22 @@
   </si>
   <si>
     <t>cjj互导</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_040_BY_AND_CJJ_TO_DDZ_CONDUCTManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏互导向斗地主</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_040_by_and_cjj_to_ddz_conduct</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4540,13 +4556,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I308"/>
+  <dimension ref="A1:I309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C284" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C308" sqref="C308"/>
+      <selection pane="bottomRight" activeCell="I310" sqref="I310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12395,6 +12411,32 @@
       <c r="H308" s="2"/>
       <c r="I308" s="37" t="s">
         <v>645</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A309" s="18">
+        <v>308</v>
+      </c>
+      <c r="B309" t="s">
+        <v>944</v>
+      </c>
+      <c r="C309" t="s">
+        <v>943</v>
+      </c>
+      <c r="D309" t="s">
+        <v>942</v>
+      </c>
+      <c r="E309">
+        <v>1</v>
+      </c>
+      <c r="F309">
+        <v>1</v>
+      </c>
+      <c r="G309">
+        <v>1</v>
+      </c>
+      <c r="I309" s="37" t="s">
+        <v>945</v>
       </c>
     </row>
   </sheetData>
